--- a/data/trans_dic/IP16A12_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A12_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 57,16</t>
+          <t>13,94; 58,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,43</t>
+          <t>0,0; 30,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 37,92</t>
+          <t>9,45; 38,71</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 22,67</t>
+          <t>11,19; 22,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 18,32</t>
+          <t>7,48; 17,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,99; 18,79</t>
+          <t>10,89; 18,35</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 40,87</t>
+          <t>15,53; 40,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 40,77</t>
+          <t>17,28; 39,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,62; 36,42</t>
+          <t>19,73; 36,31</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,62; 25,99</t>
+          <t>15,89; 26,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 21,97</t>
+          <t>11,72; 22,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,19; 22,13</t>
+          <t>15,27; 22,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A12_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A12_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>19,36%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 58,28</t>
+          <t>0,0; 24,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,01</t>
+          <t>12,77; 55,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 38,71</t>
+          <t>8,04; 35,4</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>13,34%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,19; 22,32</t>
+          <t>4,8; 16,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 17,86</t>
+          <t>11,4; 22,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,89; 18,35</t>
+          <t>8,76; 17,6</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>27,14%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,53; 40,62</t>
+          <t>17,37; 40,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 39,84</t>
+          <t>14,3; 40,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,73; 36,31</t>
+          <t>18,68; 35,6</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>17,24%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 26,16</t>
+          <t>8,61; 19,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,72; 22,01</t>
+          <t>15,64; 25,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,27; 22,26</t>
+          <t>12,8; 20,97</t>
         </is>
       </c>
     </row>
